--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -549,10 +549,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N2">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O2">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P2">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q2">
-        <v>101.60770852049</v>
+        <v>77.09300689478167</v>
       </c>
       <c r="R2">
-        <v>914.4693766844099</v>
+        <v>693.837062053035</v>
       </c>
       <c r="S2">
-        <v>0.3257128917865339</v>
+        <v>0.3391045893991099</v>
       </c>
       <c r="T2">
-        <v>0.3257128917865338</v>
+        <v>0.3391045893991099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q3">
         <v>37.40338664856834</v>
@@ -641,10 +641,10 @@
         <v>336.630479837115</v>
       </c>
       <c r="S3">
-        <v>0.1199000096086044</v>
+        <v>0.1645241323757143</v>
       </c>
       <c r="T3">
-        <v>0.1199000096086044</v>
+        <v>0.1645241323757143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N4">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q4">
-        <v>39.89716385452333</v>
+        <v>31.04097544209166</v>
       </c>
       <c r="R4">
-        <v>359.07447469071</v>
+        <v>279.368778978825</v>
       </c>
       <c r="S4">
-        <v>0.1278940427095393</v>
+        <v>0.1365381589824958</v>
       </c>
       <c r="T4">
-        <v>0.1278940427095393</v>
+        <v>0.1365381589824959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N5">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O5">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P5">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q5">
-        <v>58.28851994215832</v>
+        <v>20.74773528674166</v>
       </c>
       <c r="R5">
-        <v>524.5966794794249</v>
+        <v>186.729617580675</v>
       </c>
       <c r="S5">
-        <v>0.1868492328462353</v>
+        <v>0.09126187366091944</v>
       </c>
       <c r="T5">
-        <v>0.1868492328462353</v>
+        <v>0.09126187366091945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N6">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O6">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P6">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q6">
-        <v>15.30559088582833</v>
+        <v>19.56013966878</v>
       </c>
       <c r="R6">
-        <v>137.750317972455</v>
+        <v>176.04125701902</v>
       </c>
       <c r="S6">
-        <v>0.04906348485281953</v>
+        <v>0.08603806490546756</v>
       </c>
       <c r="T6">
-        <v>0.04906348485281953</v>
+        <v>0.08603806490546757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>22.544385</v>
       </c>
       <c r="I7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N7">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q7">
-        <v>57.00281617053999</v>
+        <v>36.42093491438</v>
       </c>
       <c r="R7">
-        <v>513.0253455348599</v>
+        <v>327.78841422942</v>
       </c>
       <c r="S7">
-        <v>0.1827277906886237</v>
+        <v>0.1602026782601539</v>
       </c>
       <c r="T7">
-        <v>0.1827277906886237</v>
+        <v>0.1602026782601539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H8">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I8">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J8">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N8">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O8">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P8">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q8">
-        <v>0.8041943325013333</v>
+        <v>1.760846156074</v>
       </c>
       <c r="R8">
-        <v>7.237748992512</v>
+        <v>15.847615404666</v>
       </c>
       <c r="S8">
-        <v>0.002577919189512369</v>
+        <v>0.00774533303086006</v>
       </c>
       <c r="T8">
-        <v>0.002577919189512369</v>
+        <v>0.007745333030860061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H9">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I9">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J9">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>14.931899</v>
       </c>
       <c r="O9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q9">
-        <v>0.2960365113742223</v>
+        <v>0.8543136693860001</v>
       </c>
       <c r="R9">
-        <v>2.664328602368</v>
+        <v>7.688823024474001</v>
       </c>
       <c r="S9">
-        <v>0.0009489723722551092</v>
+        <v>0.003757820556546433</v>
       </c>
       <c r="T9">
-        <v>0.0009489723722551093</v>
+        <v>0.003757820556546434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H10">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I10">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J10">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N10">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q10">
-        <v>0.3157740049635555</v>
+        <v>0.7089927412299999</v>
       </c>
       <c r="R10">
-        <v>2.841966044672</v>
+        <v>6.380934671069999</v>
       </c>
       <c r="S10">
-        <v>0.001012242730451441</v>
+        <v>0.00311860572165622</v>
       </c>
       <c r="T10">
-        <v>0.001012242730451442</v>
+        <v>0.00311860572165622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H11">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I11">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J11">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N11">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O11">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P11">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q11">
-        <v>0.4613360351288888</v>
+        <v>0.4738895445699999</v>
       </c>
       <c r="R11">
-        <v>4.15202431616</v>
+        <v>4.26500590113</v>
       </c>
       <c r="S11">
-        <v>0.001478855258869091</v>
+        <v>0.002084470769849016</v>
       </c>
       <c r="T11">
-        <v>0.001478855258869091</v>
+        <v>0.002084470769849016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H12">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I12">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J12">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N12">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O12">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P12">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q12">
-        <v>0.1211391303395555</v>
+        <v>0.4467642155279999</v>
       </c>
       <c r="R12">
-        <v>1.090252173056</v>
+        <v>4.020877939751999</v>
       </c>
       <c r="S12">
-        <v>0.0003883226678952783</v>
+        <v>0.001965156140188024</v>
       </c>
       <c r="T12">
-        <v>0.0003883226678952784</v>
+        <v>0.001965156140188025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H13">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I13">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J13">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N13">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q13">
-        <v>0.4511600779946666</v>
+        <v>0.8318739380879999</v>
       </c>
       <c r="R13">
-        <v>4.060440701951999</v>
+        <v>7.486865442792</v>
       </c>
       <c r="S13">
-        <v>0.001446235288660679</v>
+        <v>0.003659116197039219</v>
       </c>
       <c r="T13">
-        <v>0.00144623528866068</v>
+        <v>0.00365911619703922</v>
       </c>
     </row>
   </sheetData>
